--- a/inputs/unified_input_test_xor.xlsx
+++ b/inputs/unified_input_test_xor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC3B924-8716-45AF-B576-333FB8701EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C31F8-501C-4657-B8D6-850DAD56E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotors" sheetId="1" r:id="rId1"/>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10B3961-BE2E-4FDD-8E5E-7097ABFF7922}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2656,7 +2656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02A9FE7-F1D5-473C-B9E2-4C1332FA2544}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
